--- a/data/job_category.xlsx
+++ b/data/job_category.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Playdata\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\playground-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173669A5-1CC6-42AD-9931-6CF978BCBF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254AC31A-A751-471A-BFBE-8BF41E11D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="0" windowWidth="22596" windowHeight="12336" xr2:uid="{C975CAD8-199C-42FF-975D-80B40E5F972E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C975CAD8-199C-42FF-975D-80B40E5F972E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>https://www.wanted.co.kr/wdlist/518/873?country=kr&amp;job_sort=company.response_rate_order&amp;locations=all</t>
   </si>
@@ -280,20 +280,6 @@
   </si>
   <si>
     <t>VR 엔지니어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.wanted.co.kr/wdlist/518/795?country=kr&amp;job_sort=company.response_rate_order&amp;locations=all</t>
-  </si>
-  <si>
-    <t>CTO, Chief Technology Officer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.wanted.co.kr/wdlist/518/793?country=kr&amp;job_sort=company.response_rate_order&amp;locations=all</t>
-  </si>
-  <si>
-    <t>CIO, Chief Technology Officer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FBB3DB-94BC-4225-A693-313D46D40223}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -949,22 +935,6 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
